--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156316.8751714223</v>
+        <v>156316.8751714224</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4498819.183305227</v>
+        <v>4498819.183305226</v>
       </c>
     </row>
     <row r="11">
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.006370205582206</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.848256208035249</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="R8" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>16.44799022605982</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44799022605979</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="J9" t="n">
         <v>46.18894706358476</v>
@@ -1257,10 +1257,10 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.091680627731989</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,28 +1412,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9757828529239703</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R11" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.82961454542571</v>
+        <v>144.6751566710421</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>144.6751566710421</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>144.6751566710421</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>119.3624145151978</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>93.89097702332717</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23.23168261818573</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>127.4298779958538</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>144.6751566710421</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>144.6751566710421</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>144.6751566710421</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>19.5928186350518</v>
+        <v>19.59281863505171</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>132.5775165101856</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7.091680627731932</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>120.338197368122</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>144.6751566710422</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>144.6751566710422</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>144.6751566710422</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>93.89097702332717</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>23.23168261818573</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>144.6751566710422</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>144.6751566710422</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>144.6751566710422</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>49.83661626531914</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,50 +1853,50 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>140.6449799908417</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7.091680627731961</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="H17" t="n">
+      <c r="T17" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="I17" t="n">
-        <v>131.4600546760547</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>120.338197368122</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>16.29771529279225</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.59326173053482</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S18" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="T18" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>49.8366162653192</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,73 +2081,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>86.83958259249187</v>
+      </c>
+      <c r="S20" t="n">
+        <v>40.59029540336206</v>
+      </c>
+      <c r="T20" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>135.8581311819297</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>127.4298779958539</v>
       </c>
       <c r="T21" t="n">
         <v>144.6751566710423</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>19.5928186350518</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.59281863505174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>144.6751566710423</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>135.8581311819297</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>127.4298779958539</v>
       </c>
       <c r="G24" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T24" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>11.084212578217</v>
       </c>
     </row>
     <row r="26">
@@ -2558,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,58 +2570,58 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.9757828529239703</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>126.45409514293</v>
+      </c>
+      <c r="W26" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>127.429877995854</v>
-      </c>
-      <c r="U26" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>127.4298779958541</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.0331868332092</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>23.23168261818573</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.59326173053482</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>144.6751566710423</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>19.5928186350518</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2804,46 +2804,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>126.4540951429301</v>
+        <v>127.4298779958541</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.9757828529239703</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2874,64 +2874,64 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E30" t="n">
+        <v>127.4298779958541</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="F30" t="n">
-        <v>127.4298779958541</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>19.5928186350518</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>144.6751566710423</v>
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F32" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="G32" t="n">
-        <v>120.3381973681222</v>
+        <v>127.4298779958541</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.091680627731932</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>49.83661626531924</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>144.6751566710423</v>
@@ -3171,7 +3171,7 @@
         <v>144.6751566710423</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,73 +3187,73 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>19.59281863505183</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,73 +3263,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.9757828529239703</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="C35" t="n">
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>126.45409514293</v>
+      </c>
+      <c r="W35" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="D35" t="n">
+      <c r="X35" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="E35" t="n">
-        <v>127.4298779958541</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>85.4627238372516</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>144.6751566710423</v>
       </c>
       <c r="W36" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>127.4298779958541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>19.59281863505183</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>33.4986147756302</v>
+        <v>126.45409514293</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.091680627731932</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R38" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X39" t="n">
-        <v>144.6751566710423</v>
+        <v>127.429877995854</v>
       </c>
       <c r="Y39" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>19.59281863505183</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>126.45409514293</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U41" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>126.4540951429301</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>127.4298779958541</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>144.6751566710423</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="X42" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="Y42" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>19.59281863505183</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H44" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>7.091680627731932</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>120.338197368122</v>
       </c>
       <c r="V44" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="W44" t="n">
-        <v>45.73793391769377</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,70 +4053,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C45" t="n">
-        <v>127.4298779958541</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>127.429877995854</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="V45" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4144,52 +4144,52 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>19.5928186350518</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="C8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="D8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="E8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="F8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="G8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="H8" t="n">
-        <v>3.983600562169975</v>
+        <v>100.3794592053037</v>
       </c>
       <c r="I8" t="n">
-        <v>3.983600562169975</v>
+        <v>50.08147230921818</v>
       </c>
       <c r="J8" t="n">
         <v>3.983600562169975</v>
@@ -4823,31 +4823,31 @@
         <v>156.7444867130885</v>
       </c>
       <c r="Q8" t="n">
-        <v>154.8775612504266</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="R8" t="n">
-        <v>104.579574354341</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="S8" t="n">
-        <v>54.28158745825552</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="T8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="U8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="V8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="W8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="X8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.983600562169975</v>
+        <v>106.4464998170029</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="C9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="D9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="E9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="F9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="G9" t="n">
-        <v>67.25323418807358</v>
+        <v>151.2350764387701</v>
       </c>
       <c r="H9" t="n">
-        <v>67.25323418807358</v>
+        <v>100.9370895426846</v>
       </c>
       <c r="I9" t="n">
         <v>50.63910264659904</v>
@@ -4905,28 +4905,28 @@
         <v>167.8492079802447</v>
       </c>
       <c r="R9" t="n">
-        <v>117.5512210841591</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="S9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="T9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="U9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="V9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="W9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="X9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.25323418807358</v>
+        <v>167.8492079802447</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>290.498468439842</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="C11" t="n">
-        <v>290.498468439842</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="D11" t="n">
-        <v>290.498468439842</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="E11" t="n">
-        <v>290.498468439842</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="F11" t="n">
-        <v>290.498468439842</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="G11" t="n">
-        <v>290.498468439842</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="H11" t="n">
-        <v>144.3619465499003</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="I11" t="n">
-        <v>11.57401253368338</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="J11" t="n">
-        <v>11.57401253368338</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="K11" t="n">
-        <v>51.79022575657169</v>
+        <v>51.79022575657162</v>
       </c>
       <c r="L11" t="n">
-        <v>138.5837562783353</v>
+        <v>138.5837562783349</v>
       </c>
       <c r="M11" t="n">
-        <v>266.8277197508551</v>
+        <v>266.8277197508546</v>
       </c>
       <c r="N11" t="n">
-        <v>401.7606130061291</v>
+        <v>401.7606130061286</v>
       </c>
       <c r="O11" t="n">
-        <v>515.8386566132575</v>
+        <v>515.8386566132569</v>
       </c>
       <c r="P11" t="n">
-        <v>578.7006266841692</v>
+        <v>578.7006266841686</v>
       </c>
       <c r="Q11" t="n">
-        <v>577.7149874387914</v>
+        <v>577.7149874387908</v>
       </c>
       <c r="R11" t="n">
-        <v>489.9982373453652</v>
+        <v>577.7149874387908</v>
       </c>
       <c r="S11" t="n">
-        <v>343.8617154554235</v>
+        <v>577.7149874387908</v>
       </c>
       <c r="T11" t="n">
-        <v>290.498468439842</v>
+        <v>431.5784655488492</v>
       </c>
       <c r="U11" t="n">
-        <v>290.498468439842</v>
+        <v>431.5784655488492</v>
       </c>
       <c r="V11" t="n">
-        <v>290.498468439842</v>
+        <v>285.4419436589076</v>
       </c>
       <c r="W11" t="n">
-        <v>290.498468439842</v>
+        <v>139.305421768966</v>
       </c>
       <c r="X11" t="n">
-        <v>290.498468439842</v>
+        <v>18.73732629906922</v>
       </c>
       <c r="Y11" t="n">
-        <v>290.498468439842</v>
+        <v>18.73732629906922</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="C12" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="D12" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="E12" t="n">
-        <v>483.8612559535356</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="F12" t="n">
-        <v>337.7247340635939</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="G12" t="n">
-        <v>200.1015992302943</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="H12" t="n">
-        <v>97.43042269995608</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="I12" t="n">
-        <v>35.04035861265887</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="J12" t="n">
-        <v>11.57401253368338</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="K12" t="n">
-        <v>11.57401253368338</v>
+        <v>50.41925783498752</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1287797974577</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M12" t="n">
-        <v>244.4944128384902</v>
+        <v>243.6629351576682</v>
       </c>
       <c r="N12" t="n">
-        <v>386.8913402620004</v>
+        <v>386.891340262</v>
       </c>
       <c r="O12" t="n">
-        <v>504.0242257254407</v>
+        <v>504.0242257254402</v>
       </c>
       <c r="P12" t="n">
-        <v>578.7006266841692</v>
+        <v>578.7006266841686</v>
       </c>
       <c r="Q12" t="n">
-        <v>578.7006266841692</v>
+        <v>578.7006266841686</v>
       </c>
       <c r="R12" t="n">
-        <v>578.7006266841692</v>
+        <v>578.7006266841686</v>
       </c>
       <c r="S12" t="n">
-        <v>578.7006266841692</v>
+        <v>449.9835782035082</v>
       </c>
       <c r="T12" t="n">
-        <v>578.7006266841692</v>
+        <v>303.8470563135666</v>
       </c>
       <c r="U12" t="n">
-        <v>578.7006266841692</v>
+        <v>157.7105344236249</v>
       </c>
       <c r="V12" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="W12" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="X12" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="Y12" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368337</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="D13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="E13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="F13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="G13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="H13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="I13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="J13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="K13" t="n">
-        <v>11.57401253368338</v>
+        <v>11.57401253368337</v>
       </c>
       <c r="L13" t="n">
-        <v>13.35570305153745</v>
+        <v>13.35570305153741</v>
       </c>
       <c r="M13" t="n">
-        <v>18.49252890534892</v>
+        <v>18.49252890534885</v>
       </c>
       <c r="N13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="O13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="P13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="R13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="S13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="T13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="U13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="V13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="W13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="X13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.3647384276751</v>
+        <v>31.364738427675</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>577.7149874387914</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="C14" t="n">
-        <v>577.7149874387914</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="D14" t="n">
-        <v>577.7149874387914</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="E14" t="n">
-        <v>577.7149874387914</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="F14" t="n">
-        <v>443.7983040951696</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="G14" t="n">
-        <v>297.6617822052278</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="H14" t="n">
-        <v>151.5252603152861</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="I14" t="n">
-        <v>18.73732629906917</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="J14" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K14" t="n">
-        <v>51.79022575657169</v>
+        <v>51.79022575657162</v>
       </c>
       <c r="L14" t="n">
-        <v>138.5837562783353</v>
+        <v>138.5837562783349</v>
       </c>
       <c r="M14" t="n">
-        <v>266.8277197508551</v>
+        <v>266.8277197508547</v>
       </c>
       <c r="N14" t="n">
-        <v>401.7606130061291</v>
+        <v>401.7606130061288</v>
       </c>
       <c r="O14" t="n">
-        <v>515.8386566132575</v>
+        <v>515.8386566132573</v>
       </c>
       <c r="P14" t="n">
-        <v>578.7006266841692</v>
+        <v>578.7006266841689</v>
       </c>
       <c r="Q14" t="n">
-        <v>577.7149874387914</v>
+        <v>578.7006266841689</v>
       </c>
       <c r="R14" t="n">
-        <v>577.7149874387914</v>
+        <v>578.7006266841689</v>
       </c>
       <c r="S14" t="n">
-        <v>577.7149874387914</v>
+        <v>578.7006266841689</v>
       </c>
       <c r="T14" t="n">
-        <v>577.7149874387914</v>
+        <v>457.1468919688942</v>
       </c>
       <c r="U14" t="n">
-        <v>577.7149874387914</v>
+        <v>311.0103700789525</v>
       </c>
       <c r="V14" t="n">
-        <v>577.7149874387914</v>
+        <v>311.0103700789525</v>
       </c>
       <c r="W14" t="n">
-        <v>577.7149874387914</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="X14" t="n">
-        <v>577.7149874387914</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="Y14" t="n">
-        <v>577.7149874387914</v>
+        <v>18.7373262990692</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C15" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D15" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E15" t="n">
-        <v>483.8612559535356</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F15" t="n">
-        <v>337.7247340635939</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G15" t="n">
-        <v>200.1015992302943</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H15" t="n">
-        <v>97.43042269995608</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I15" t="n">
-        <v>35.04035861265887</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J15" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K15" t="n">
-        <v>50.41925783498759</v>
+        <v>50.41925783498755</v>
       </c>
       <c r="L15" t="n">
-        <v>148.9740250987619</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M15" t="n">
-        <v>283.3396581397944</v>
+        <v>243.6629351576684</v>
       </c>
       <c r="N15" t="n">
-        <v>386.8913402620004</v>
+        <v>386.8913402620003</v>
       </c>
       <c r="O15" t="n">
-        <v>504.0242257254407</v>
+        <v>504.0242257254405</v>
       </c>
       <c r="P15" t="n">
-        <v>578.7006266841692</v>
+        <v>578.7006266841689</v>
       </c>
       <c r="Q15" t="n">
-        <v>578.7006266841692</v>
+        <v>578.7006266841689</v>
       </c>
       <c r="R15" t="n">
-        <v>578.7006266841692</v>
+        <v>500.3235946331237</v>
       </c>
       <c r="S15" t="n">
-        <v>578.7006266841692</v>
+        <v>354.187072743182</v>
       </c>
       <c r="T15" t="n">
-        <v>578.7006266841692</v>
+        <v>208.0505508532403</v>
       </c>
       <c r="U15" t="n">
-        <v>578.7006266841692</v>
+        <v>61.91402896329868</v>
       </c>
       <c r="V15" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W15" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X15" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y15" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K16" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="L16" t="n">
-        <v>13.35570305153745</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M16" t="n">
-        <v>18.49252890534892</v>
+        <v>18.49252890534888</v>
       </c>
       <c r="N16" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O16" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P16" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="S16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="T16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="U16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="V16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>578.7006266841693</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="C17" t="n">
-        <v>578.7006266841693</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="D17" t="n">
-        <v>578.7006266841693</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="E17" t="n">
-        <v>578.7006266841693</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="F17" t="n">
-        <v>436.6349903297837</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="G17" t="n">
-        <v>290.498468439842</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="H17" t="n">
-        <v>144.3619465499003</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="I17" t="n">
-        <v>11.57401253368338</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="J17" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K17" t="n">
-        <v>51.79022575657169</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L17" t="n">
         <v>138.5837562783352</v>
@@ -5528,37 +5528,37 @@
         <v>401.7606130061291</v>
       </c>
       <c r="O17" t="n">
-        <v>515.8386566132576</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P17" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q17" t="n">
-        <v>578.7006266841693</v>
+        <v>578.700626684169</v>
       </c>
       <c r="R17" t="n">
-        <v>578.7006266841693</v>
+        <v>578.700626684169</v>
       </c>
       <c r="S17" t="n">
-        <v>578.7006266841693</v>
+        <v>432.5641047942273</v>
       </c>
       <c r="T17" t="n">
-        <v>578.7006266841693</v>
+        <v>286.4275829042856</v>
       </c>
       <c r="U17" t="n">
-        <v>578.7006266841693</v>
+        <v>286.4275829042856</v>
       </c>
       <c r="V17" t="n">
-        <v>578.7006266841693</v>
+        <v>286.4275829042856</v>
       </c>
       <c r="W17" t="n">
-        <v>578.7006266841693</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="X17" t="n">
-        <v>578.7006266841693</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="Y17" t="n">
-        <v>578.7006266841693</v>
+        <v>18.7373262990692</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.57401253368338</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="C18" t="n">
-        <v>11.57401253368338</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="D18" t="n">
-        <v>11.57401253368338</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="E18" t="n">
-        <v>11.57401253368338</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="F18" t="n">
-        <v>11.57401253368338</v>
+        <v>337.7247340635939</v>
       </c>
       <c r="G18" t="n">
-        <v>11.57401253368338</v>
+        <v>200.1015992302943</v>
       </c>
       <c r="H18" t="n">
-        <v>11.57401253368338</v>
+        <v>97.4304226999561</v>
       </c>
       <c r="I18" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="J18" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K18" t="n">
-        <v>50.41925783498759</v>
+        <v>50.41925783498755</v>
       </c>
       <c r="L18" t="n">
-        <v>148.9740250987619</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M18" t="n">
-        <v>283.3396581397944</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N18" t="n">
         <v>386.8913402620004</v>
       </c>
       <c r="O18" t="n">
-        <v>504.0242257254407</v>
+        <v>504.0242257254406</v>
       </c>
       <c r="P18" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="Q18" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="R18" t="n">
-        <v>500.3235946331239</v>
+        <v>500.3235946331238</v>
       </c>
       <c r="S18" t="n">
-        <v>354.1870727431822</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="T18" t="n">
-        <v>208.0505508532405</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="U18" t="n">
-        <v>157.7105344236251</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="V18" t="n">
-        <v>11.57401253368338</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="W18" t="n">
-        <v>11.57401253368338</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="X18" t="n">
-        <v>11.57401253368338</v>
+        <v>354.1870727431821</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.57401253368338</v>
+        <v>354.1870727431821</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I19" t="n">
         <v>11.57401253368338</v>
@@ -5677,46 +5677,46 @@
         <v>11.57401253368338</v>
       </c>
       <c r="L19" t="n">
-        <v>13.35570305153745</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M19" t="n">
-        <v>18.49252890534892</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N19" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O19" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P19" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R19" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S19" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T19" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U19" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>157.7105344236251</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D20" t="n">
         <v>11.57401253368338</v>
@@ -5753,46 +5753,46 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K20" t="n">
-        <v>51.79022575657168</v>
+        <v>51.79022575657154</v>
       </c>
       <c r="L20" t="n">
         <v>138.5837562783352</v>
       </c>
       <c r="M20" t="n">
-        <v>266.8277197508551</v>
+        <v>266.8277197508548</v>
       </c>
       <c r="N20" t="n">
-        <v>401.7606130061291</v>
+        <v>401.7606130061289</v>
       </c>
       <c r="O20" t="n">
-        <v>515.8386566132575</v>
+        <v>515.8386566132574</v>
       </c>
       <c r="P20" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="Q20" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="R20" t="n">
-        <v>578.7006266841692</v>
+        <v>490.9838765907429</v>
       </c>
       <c r="S20" t="n">
-        <v>578.7006266841692</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="T20" t="n">
-        <v>578.7006266841692</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="U20" t="n">
-        <v>578.7006266841692</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="V20" t="n">
-        <v>578.7006266841692</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="W20" t="n">
-        <v>449.9835782035085</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="X20" t="n">
-        <v>303.8470563135668</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="Y20" t="n">
         <v>157.7105344236251</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>149.197147366983</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C21" t="n">
-        <v>149.197147366983</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D21" t="n">
-        <v>149.197147366983</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E21" t="n">
-        <v>149.197147366983</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F21" t="n">
-        <v>149.197147366983</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G21" t="n">
         <v>11.57401253368338</v>
@@ -5832,49 +5832,49 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K21" t="n">
-        <v>50.41925783498756</v>
+        <v>50.41925783498758</v>
       </c>
       <c r="L21" t="n">
-        <v>148.9740250987618</v>
+        <v>148.9740250987619</v>
       </c>
       <c r="M21" t="n">
-        <v>283.3396581397943</v>
+        <v>283.3396581397944</v>
       </c>
       <c r="N21" t="n">
-        <v>386.8913402620005</v>
+        <v>426.5680632441262</v>
       </c>
       <c r="O21" t="n">
-        <v>504.0242257254407</v>
+        <v>543.7009487075665</v>
       </c>
       <c r="P21" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="Q21" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="R21" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="S21" t="n">
-        <v>578.7006266841692</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="T21" t="n">
-        <v>432.5641047942274</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="U21" t="n">
-        <v>432.5641047942274</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="V21" t="n">
-        <v>432.5641047942274</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="W21" t="n">
-        <v>432.5641047942274</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="X21" t="n">
-        <v>432.5641047942274</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="Y21" t="n">
-        <v>286.4275829042857</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="22">
@@ -5914,43 +5914,43 @@
         <v>11.57401253368338</v>
       </c>
       <c r="L22" t="n">
-        <v>13.35570305153742</v>
+        <v>13.35570305153745</v>
       </c>
       <c r="M22" t="n">
-        <v>18.49252890534889</v>
+        <v>18.49252890534891</v>
       </c>
       <c r="N22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="O22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="P22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="R22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="S22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="T22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="U22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="V22" t="n">
-        <v>31.36473842767504</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="W22" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X22" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y22" t="n">
         <v>11.57401253368338</v>
@@ -5966,19 +5966,19 @@
         <v>303.8470563135668</v>
       </c>
       <c r="C23" t="n">
+        <v>303.8470563135668</v>
+      </c>
+      <c r="D23" t="n">
+        <v>303.8470563135668</v>
+      </c>
+      <c r="E23" t="n">
+        <v>303.8470563135668</v>
+      </c>
+      <c r="F23" t="n">
+        <v>303.8470563135668</v>
+      </c>
+      <c r="G23" t="n">
         <v>157.7105344236251</v>
-      </c>
-      <c r="D23" t="n">
-        <v>157.7105344236251</v>
-      </c>
-      <c r="E23" t="n">
-        <v>157.7105344236251</v>
-      </c>
-      <c r="F23" t="n">
-        <v>11.57401253368338</v>
-      </c>
-      <c r="G23" t="n">
-        <v>11.57401253368338</v>
       </c>
       <c r="H23" t="n">
         <v>11.57401253368338</v>
@@ -5990,7 +5990,7 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K23" t="n">
-        <v>51.79022575657169</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L23" t="n">
         <v>138.5837562783352</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>149.197147366983</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="C24" t="n">
-        <v>149.197147366983</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="D24" t="n">
-        <v>149.197147366983</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="E24" t="n">
-        <v>149.197147366983</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="F24" t="n">
-        <v>149.197147366983</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G24" t="n">
         <v>11.57401253368338</v>
@@ -6069,49 +6069,49 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K24" t="n">
-        <v>50.41925783498759</v>
+        <v>50.41925783498758</v>
       </c>
       <c r="L24" t="n">
         <v>148.9740250987619</v>
       </c>
       <c r="M24" t="n">
-        <v>243.6629351576686</v>
+        <v>283.3396581397944</v>
       </c>
       <c r="N24" t="n">
-        <v>386.8913402620004</v>
+        <v>386.8913402620003</v>
       </c>
       <c r="O24" t="n">
-        <v>504.0242257254407</v>
+        <v>504.0242257254406</v>
       </c>
       <c r="P24" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="Q24" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="R24" t="n">
-        <v>578.7006266841692</v>
+        <v>578.700626684169</v>
       </c>
       <c r="S24" t="n">
-        <v>578.7006266841692</v>
+        <v>432.5641047942273</v>
       </c>
       <c r="T24" t="n">
-        <v>432.5641047942274</v>
+        <v>286.4275829042856</v>
       </c>
       <c r="U24" t="n">
-        <v>432.5641047942274</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="V24" t="n">
-        <v>432.5641047942274</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="W24" t="n">
-        <v>432.5641047942274</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="X24" t="n">
-        <v>432.5641047942274</v>
+        <v>140.2910610143439</v>
       </c>
       <c r="Y24" t="n">
-        <v>286.4275829042857</v>
+        <v>140.2910610143439</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K25" t="n">
         <v>11.57401253368338</v>
@@ -6154,43 +6154,43 @@
         <v>13.35570305153745</v>
       </c>
       <c r="M25" t="n">
-        <v>18.49252890534892</v>
+        <v>18.49252890534891</v>
       </c>
       <c r="N25" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767509</v>
       </c>
       <c r="O25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="P25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="R25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="T25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="U25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="V25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="W25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="X25" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511469</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>157.7105344236251</v>
+        <v>303.8470563135669</v>
       </c>
       <c r="C26" t="n">
-        <v>157.7105344236251</v>
+        <v>303.8470563135669</v>
       </c>
       <c r="D26" t="n">
         <v>157.7105344236251</v>
       </c>
       <c r="E26" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="F26" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="G26" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="H26" t="n">
         <v>11.57401253368339</v>
@@ -6233,7 +6233,7 @@
         <v>138.5837562783352</v>
       </c>
       <c r="M26" t="n">
-        <v>266.8277197508551</v>
+        <v>266.827719750855</v>
       </c>
       <c r="N26" t="n">
         <v>401.7606130061291</v>
@@ -6245,22 +6245,22 @@
         <v>578.7006266841693</v>
       </c>
       <c r="Q26" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="R26" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="S26" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="T26" t="n">
+        <v>577.7149874387915</v>
+      </c>
+      <c r="U26" t="n">
+        <v>577.7149874387915</v>
+      </c>
+      <c r="V26" t="n">
         <v>449.9835782035086</v>
-      </c>
-      <c r="U26" t="n">
-        <v>303.8470563135669</v>
-      </c>
-      <c r="V26" t="n">
-        <v>303.8470563135669</v>
       </c>
       <c r="W26" t="n">
         <v>303.8470563135669</v>
@@ -6269,7 +6269,7 @@
         <v>303.8470563135669</v>
       </c>
       <c r="Y26" t="n">
-        <v>157.7105344236251</v>
+        <v>303.8470563135669</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>208.0505508532405</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="C27" t="n">
-        <v>208.0505508532405</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="D27" t="n">
-        <v>208.0505508532405</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="E27" t="n">
-        <v>208.0505508532405</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="F27" t="n">
-        <v>208.0505508532405</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="G27" t="n">
-        <v>70.42741601994089</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="H27" t="n">
-        <v>70.42741601994089</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="I27" t="n">
-        <v>35.04035861265887</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="J27" t="n">
         <v>11.57401253368339</v>
@@ -6327,28 +6327,28 @@
         <v>578.7006266841693</v>
       </c>
       <c r="R27" t="n">
-        <v>500.323594633124</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="S27" t="n">
-        <v>354.1870727431823</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="T27" t="n">
-        <v>354.1870727431823</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="U27" t="n">
-        <v>354.1870727431823</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="V27" t="n">
-        <v>208.0505508532405</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="W27" t="n">
-        <v>208.0505508532405</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="X27" t="n">
-        <v>208.0505508532405</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="Y27" t="n">
-        <v>208.0505508532405</v>
+        <v>140.2910610143441</v>
       </c>
     </row>
     <row r="28">
@@ -6406,10 +6406,10 @@
         <v>31.3647384276751</v>
       </c>
       <c r="R28" t="n">
-        <v>11.57401253368339</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="S28" t="n">
-        <v>11.57401253368339</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="T28" t="n">
         <v>11.57401253368339</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>285.441943658908</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="C29" t="n">
-        <v>285.441943658908</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="D29" t="n">
-        <v>285.441943658908</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="E29" t="n">
-        <v>285.441943658908</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="F29" t="n">
-        <v>285.441943658908</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="G29" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="H29" t="n">
         <v>11.57401253368339</v>
@@ -6482,31 +6482,31 @@
         <v>578.7006266841693</v>
       </c>
       <c r="Q29" t="n">
-        <v>577.7149874387915</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="R29" t="n">
-        <v>577.7149874387915</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="S29" t="n">
-        <v>577.7149874387915</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="T29" t="n">
-        <v>577.7149874387915</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="U29" t="n">
-        <v>577.7149874387915</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="V29" t="n">
-        <v>577.7149874387915</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="W29" t="n">
-        <v>577.7149874387915</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="X29" t="n">
-        <v>577.7149874387915</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="Y29" t="n">
-        <v>431.5784655488497</v>
+        <v>286.4275829042858</v>
       </c>
     </row>
     <row r="30">
@@ -6522,10 +6522,10 @@
         <v>286.4275829042858</v>
       </c>
       <c r="D30" t="n">
-        <v>286.4275829042858</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="E30" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="F30" t="n">
         <v>11.57401253368339</v>
@@ -6546,10 +6546,10 @@
         <v>50.41925783498759</v>
       </c>
       <c r="L30" t="n">
-        <v>109.2973021166362</v>
+        <v>148.9740250987619</v>
       </c>
       <c r="M30" t="n">
-        <v>243.6629351576686</v>
+        <v>283.3396581397944</v>
       </c>
       <c r="N30" t="n">
         <v>386.8913402620005</v>
@@ -6570,13 +6570,13 @@
         <v>578.7006266841693</v>
       </c>
       <c r="T30" t="n">
-        <v>432.5641047942275</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="U30" t="n">
         <v>432.5641047942275</v>
       </c>
       <c r="V30" t="n">
-        <v>286.4275829042858</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="W30" t="n">
         <v>286.4275829042858</v>
@@ -6649,13 +6649,13 @@
         <v>31.3647384276751</v>
       </c>
       <c r="T31" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="U31" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="V31" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="W31" t="n">
         <v>11.57401253368339</v>
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>578.7006266841693</v>
+      </c>
+      <c r="C32" t="n">
         <v>432.5641047942275</v>
       </c>
-      <c r="C32" t="n">
-        <v>286.4275829042858</v>
-      </c>
       <c r="D32" t="n">
-        <v>286.4275829042858</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="E32" t="n">
         <v>286.4275829042858</v>
@@ -6689,13 +6689,13 @@
         <v>140.2910610143441</v>
       </c>
       <c r="G32" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="H32" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="I32" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="J32" t="n">
         <v>11.57401253368339</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11.57401253368339</v>
+        <v>61.91402896329879</v>
       </c>
       <c r="C33" t="n">
-        <v>11.57401253368339</v>
+        <v>61.91402896329879</v>
       </c>
       <c r="D33" t="n">
-        <v>11.57401253368339</v>
+        <v>61.91402896329879</v>
       </c>
       <c r="E33" t="n">
-        <v>11.57401253368339</v>
+        <v>61.91402896329879</v>
       </c>
       <c r="F33" t="n">
-        <v>11.57401253368339</v>
+        <v>61.91402896329879</v>
       </c>
       <c r="G33" t="n">
         <v>11.57401253368339</v>
@@ -6789,10 +6789,10 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N33" t="n">
-        <v>426.5680632441263</v>
+        <v>386.8913402620005</v>
       </c>
       <c r="O33" t="n">
-        <v>543.7009487075666</v>
+        <v>504.0242257254408</v>
       </c>
       <c r="P33" t="n">
         <v>578.7006266841693</v>
@@ -6810,13 +6810,13 @@
         <v>500.323594633124</v>
       </c>
       <c r="U33" t="n">
+        <v>500.323594633124</v>
+      </c>
+      <c r="V33" t="n">
         <v>354.1870727431823</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>208.0505508532405</v>
-      </c>
-      <c r="W33" t="n">
-        <v>61.91402896329879</v>
       </c>
       <c r="X33" t="n">
         <v>61.91402896329879</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>578.7006266841693</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="C34" t="n">
         <v>558.9099007901775</v>
@@ -6901,7 +6901,7 @@
         <v>578.7006266841693</v>
       </c>
       <c r="Y34" t="n">
-        <v>578.7006266841693</v>
+        <v>558.9099007901775</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>432.5641047942275</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="C35" t="n">
-        <v>286.4275829042858</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="D35" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="E35" t="n">
         <v>11.57401253368339</v>
@@ -6938,16 +6938,16 @@
         <v>11.57401253368339</v>
       </c>
       <c r="K35" t="n">
-        <v>51.79022575657168</v>
+        <v>51.79022575657183</v>
       </c>
       <c r="L35" t="n">
-        <v>138.5837562783352</v>
+        <v>138.5837562783353</v>
       </c>
       <c r="M35" t="n">
         <v>266.8277197508551</v>
       </c>
       <c r="N35" t="n">
-        <v>401.7606130061291</v>
+        <v>401.7606130061292</v>
       </c>
       <c r="O35" t="n">
         <v>515.8386566132576</v>
@@ -6956,31 +6956,31 @@
         <v>578.7006266841693</v>
       </c>
       <c r="Q35" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="R35" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="S35" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="T35" t="n">
-        <v>578.7006266841693</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="U35" t="n">
-        <v>578.7006266841693</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="V35" t="n">
-        <v>578.7006266841693</v>
+        <v>303.8470563135669</v>
       </c>
       <c r="W35" t="n">
-        <v>578.7006266841693</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="X35" t="n">
-        <v>578.7006266841693</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="Y35" t="n">
-        <v>578.7006266841693</v>
+        <v>11.57401253368339</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11.57401253368339</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="C36" t="n">
-        <v>11.57401253368339</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="D36" t="n">
-        <v>11.57401253368339</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="E36" t="n">
-        <v>11.57401253368339</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="F36" t="n">
-        <v>11.57401253368339</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="G36" t="n">
-        <v>11.57401253368339</v>
+        <v>200.1015992302943</v>
       </c>
       <c r="H36" t="n">
-        <v>11.57401253368339</v>
+        <v>97.43042269995608</v>
       </c>
       <c r="I36" t="n">
-        <v>11.57401253368339</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="J36" t="n">
         <v>11.57401253368339</v>
@@ -7026,10 +7026,10 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N36" t="n">
-        <v>386.8913402620005</v>
+        <v>426.5680632441263</v>
       </c>
       <c r="O36" t="n">
-        <v>504.0242257254408</v>
+        <v>543.7009487075666</v>
       </c>
       <c r="P36" t="n">
         <v>578.7006266841693</v>
@@ -7044,22 +7044,22 @@
         <v>578.7006266841693</v>
       </c>
       <c r="T36" t="n">
-        <v>578.7006266841693</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="U36" t="n">
-        <v>578.7006266841693</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="V36" t="n">
-        <v>432.5641047942275</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="W36" t="n">
         <v>286.4275829042858</v>
       </c>
       <c r="X36" t="n">
-        <v>140.2910610143441</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.57401253368339</v>
+        <v>286.4275829042858</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="C37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="D37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="E37" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="F37" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="G37" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="H37" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="I37" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="J37" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="K37" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="L37" t="n">
-        <v>13.35570305153745</v>
+        <v>560.6915913080315</v>
       </c>
       <c r="M37" t="n">
-        <v>18.49252890534892</v>
+        <v>565.828417161843</v>
       </c>
       <c r="N37" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="O37" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="P37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="R37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="S37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="T37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="U37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="V37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="W37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="X37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901775</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>52.57431092091787</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="C38" t="n">
-        <v>18.73732629906917</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="D38" t="n">
-        <v>18.73732629906917</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="E38" t="n">
-        <v>18.73732629906917</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="F38" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G38" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H38" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I38" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J38" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K38" t="n">
-        <v>51.79022575657169</v>
+        <v>51.79022575657166</v>
       </c>
       <c r="L38" t="n">
         <v>138.5837562783352</v>
       </c>
       <c r="M38" t="n">
-        <v>266.8277197508551</v>
+        <v>266.827719750855</v>
       </c>
       <c r="N38" t="n">
-        <v>401.7606130061291</v>
+        <v>401.760613006129</v>
       </c>
       <c r="O38" t="n">
-        <v>515.8386566132576</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P38" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q38" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R38" t="n">
-        <v>490.9838765907431</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S38" t="n">
-        <v>490.9838765907431</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T38" t="n">
-        <v>490.9838765907431</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U38" t="n">
-        <v>490.9838765907431</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="V38" t="n">
-        <v>344.8473547008014</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="W38" t="n">
-        <v>198.7108328108596</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="X38" t="n">
-        <v>52.57431092091787</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="Y38" t="n">
-        <v>52.57431092091787</v>
+        <v>577.7149874387914</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K39" t="n">
         <v>50.41925783498759</v>
@@ -7263,40 +7263,40 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N39" t="n">
-        <v>386.8913402620005</v>
+        <v>386.8913402620004</v>
       </c>
       <c r="O39" t="n">
-        <v>504.0242257254408</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P39" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q39" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R39" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S39" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T39" t="n">
-        <v>449.9835782035086</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U39" t="n">
-        <v>303.8470563135669</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="V39" t="n">
-        <v>303.8470563135669</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="W39" t="n">
-        <v>303.8470563135669</v>
+        <v>140.291061014344</v>
       </c>
       <c r="X39" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="C40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="D40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="E40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="F40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="G40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="H40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="I40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="J40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="K40" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="L40" t="n">
-        <v>13.35570305153745</v>
+        <v>560.6915913080314</v>
       </c>
       <c r="M40" t="n">
-        <v>18.49252890534892</v>
+        <v>565.8284171618429</v>
       </c>
       <c r="N40" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="O40" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="P40" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R40" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S40" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T40" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="U40" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="V40" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="W40" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="X40" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.3647384276751</v>
+        <v>558.9099007901774</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11.57401253368339</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="C41" t="n">
-        <v>11.57401253368339</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="D41" t="n">
-        <v>11.57401253368339</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="E41" t="n">
-        <v>11.57401253368339</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="F41" t="n">
-        <v>11.57401253368339</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="G41" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H41" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I41" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J41" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K41" t="n">
-        <v>51.79022575657169</v>
+        <v>51.79022575657172</v>
       </c>
       <c r="L41" t="n">
-        <v>138.5837562783352</v>
+        <v>138.5837562783353</v>
       </c>
       <c r="M41" t="n">
-        <v>266.8277197508551</v>
+        <v>266.827719750855</v>
       </c>
       <c r="N41" t="n">
-        <v>401.7606130061291</v>
+        <v>401.760613006129</v>
       </c>
       <c r="O41" t="n">
-        <v>515.8386566132576</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P41" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q41" t="n">
-        <v>577.7149874387915</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R41" t="n">
-        <v>577.7149874387915</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S41" t="n">
-        <v>577.7149874387915</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T41" t="n">
-        <v>577.7149874387915</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="U41" t="n">
-        <v>431.5784655488497</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="V41" t="n">
-        <v>285.441943658908</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="W41" t="n">
-        <v>139.3054217689663</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="X41" t="n">
-        <v>11.57401253368339</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="Y41" t="n">
-        <v>11.57401253368339</v>
+        <v>431.5784655488496</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C42" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D42" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E42" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F42" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G42" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H42" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I42" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J42" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K42" t="n">
         <v>50.41925783498759</v>
@@ -7500,40 +7500,40 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N42" t="n">
-        <v>386.8913402620005</v>
+        <v>426.5680632441263</v>
       </c>
       <c r="O42" t="n">
-        <v>504.0242257254408</v>
+        <v>543.7009487075666</v>
       </c>
       <c r="P42" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q42" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R42" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S42" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T42" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U42" t="n">
-        <v>432.5641047942275</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="V42" t="n">
-        <v>432.5641047942275</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="W42" t="n">
-        <v>432.5641047942275</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="X42" t="n">
-        <v>286.4275829042858</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y42" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11.57401253368339</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="C43" t="n">
-        <v>11.57401253368339</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="D43" t="n">
-        <v>11.57401253368339</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="E43" t="n">
-        <v>11.57401253368339</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="F43" t="n">
-        <v>11.57401253368339</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="G43" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="H43" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="I43" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="J43" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="K43" t="n">
-        <v>11.57401253368339</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="L43" t="n">
-        <v>13.35570305153745</v>
+        <v>560.6915913080314</v>
       </c>
       <c r="M43" t="n">
-        <v>18.49252890534892</v>
+        <v>565.8284171618429</v>
       </c>
       <c r="N43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="O43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="P43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W43" t="n">
-        <v>31.3647384276751</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X43" t="n">
-        <v>11.57401253368339</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.57401253368339</v>
+        <v>578.7006266841692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>297.6617822052278</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="C44" t="n">
-        <v>297.6617822052278</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="D44" t="n">
-        <v>297.6617822052278</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="E44" t="n">
-        <v>297.6617822052278</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="F44" t="n">
-        <v>297.6617822052278</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="G44" t="n">
-        <v>297.6617822052278</v>
+        <v>18.73732629906917</v>
       </c>
       <c r="H44" t="n">
-        <v>151.5252603152861</v>
+        <v>18.73732629906917</v>
       </c>
       <c r="I44" t="n">
         <v>18.73732629906917</v>
       </c>
       <c r="J44" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K44" t="n">
         <v>51.79022575657169</v>
@@ -7664,34 +7664,34 @@
         <v>515.8386566132576</v>
       </c>
       <c r="P44" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q44" t="n">
-        <v>577.7149874387915</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R44" t="n">
-        <v>489.9982373453653</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S44" t="n">
-        <v>489.9982373453653</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T44" t="n">
-        <v>489.9982373453653</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U44" t="n">
-        <v>489.9982373453653</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="V44" t="n">
-        <v>343.8617154554236</v>
+        <v>311.0103700789526</v>
       </c>
       <c r="W44" t="n">
-        <v>297.6617822052278</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="X44" t="n">
-        <v>297.6617822052278</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="Y44" t="n">
-        <v>297.6617822052278</v>
+        <v>164.8738481890109</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>286.4275829042858</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="C45" t="n">
-        <v>157.7105344236251</v>
+        <v>140.291061014344</v>
       </c>
       <c r="D45" t="n">
-        <v>157.7105344236251</v>
+        <v>140.291061014344</v>
       </c>
       <c r="E45" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F45" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G45" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H45" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I45" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J45" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K45" t="n">
         <v>50.41925783498759</v>
@@ -7737,40 +7737,40 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N45" t="n">
-        <v>386.8913402620005</v>
+        <v>386.8913402620004</v>
       </c>
       <c r="O45" t="n">
-        <v>504.0242257254408</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P45" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q45" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R45" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S45" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T45" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U45" t="n">
-        <v>432.5641047942275</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V45" t="n">
-        <v>286.4275829042858</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W45" t="n">
-        <v>286.4275829042858</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="X45" t="n">
-        <v>286.4275829042858</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="Y45" t="n">
-        <v>286.4275829042858</v>
+        <v>432.5641047942274</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F46" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G46" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H46" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I46" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J46" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K46" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L46" t="n">
         <v>13.35570305153745</v>
@@ -7837,19 +7837,19 @@
         <v>31.3647384276751</v>
       </c>
       <c r="U46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="V46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
   </sheetData>
@@ -22583,13 +22583,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P2" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R2" t="n">
         <v>133.1811664518765</v>
@@ -22732,10 +22732,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N4" t="n">
         <v>37.63776203285606</v>
@@ -23036,13 +23036,13 @@
         <v>413.707320657778</v>
       </c>
       <c r="H8" t="n">
-        <v>323.1357392253592</v>
+        <v>317.129369019777</v>
       </c>
       <c r="I8" t="n">
-        <v>148.9685811771479</v>
+        <v>99.17357415002326</v>
       </c>
       <c r="J8" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>17.14684397594775</v>
@@ -23063,16 +23063,16 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q8" t="n">
-        <v>48.1703615114973</v>
+        <v>0.223610692407874</v>
       </c>
       <c r="R8" t="n">
-        <v>65.57242662105217</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S8" t="n">
-        <v>122.8695009220967</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T8" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U8" t="n">
         <v>251.2180195592479</v>
@@ -23112,13 +23112,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.4898938890125</v>
+        <v>120.0419036629527</v>
       </c>
       <c r="H9" t="n">
-        <v>103.9912405093721</v>
+        <v>54.19623348224739</v>
       </c>
       <c r="I9" t="n">
-        <v>53.68429020176652</v>
+        <v>20.33727340070163</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>42.88497470197422</v>
+        <v>92.6799817290989</v>
       </c>
       <c r="S9" t="n">
-        <v>106.0324861546551</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T9" t="n">
         <v>196.7240278659264</v>
@@ -23273,13 +23273,13 @@
         <v>413.2531730278943</v>
       </c>
       <c r="H11" t="n">
-        <v>173.8095431397699</v>
+        <v>318.4846998108123</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J11" t="n">
-        <v>7.091680627731932</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.83958259249189</v>
       </c>
       <c r="S11" t="n">
-        <v>17.64046216220319</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T11" t="n">
-        <v>161.294266475809</v>
+        <v>69.44872435019258</v>
       </c>
       <c r="U11" t="n">
         <v>251.1816877488572</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>183.0771017990928</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463709</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>250.3686861632712</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23343,22 +23343,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>63.75410343207378</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3940557223415908</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>23.23168261818576</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.59326173053482</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S12" t="n">
-        <v>151.3140530013673</v>
+        <v>23.88417500551353</v>
       </c>
       <c r="T12" t="n">
-        <v>195.7446060180399</v>
+        <v>51.0694493469978</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8692364442482</v>
+        <v>81.19407977320608</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838312</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23437,10 +23437,10 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J13" t="n">
-        <v>61.99638167634126</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K13" t="n">
-        <v>2.607050288750802</v>
+        <v>2.607050288750916</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23452,13 +23452,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>8.508606056834793</v>
+        <v>8.508606056834822</v>
       </c>
       <c r="P13" t="n">
-        <v>26.53509868619514</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.52079753307214</v>
+        <v>74.52079753307216</v>
       </c>
       <c r="R13" t="n">
         <v>135.9554396389582</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>274.2985292315259</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>268.578016356852</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H14" t="n">
-        <v>173.8095431397699</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R14" t="n">
         <v>86.83958259249187</v>
@@ -23546,19 +23546,19 @@
         <v>162.3156188332455</v>
       </c>
       <c r="T14" t="n">
-        <v>214.1238810212347</v>
+        <v>93.78568365311274</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1816877488572</v>
+        <v>106.506531077815</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463708</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>225.0559440074268</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23580,22 +23580,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>63.75410343207378</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3940557223415908</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.59326173053482</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.3140530013673</v>
+        <v>6.63889633032511</v>
       </c>
       <c r="T15" t="n">
-        <v>195.7446060180399</v>
+        <v>51.06944934699771</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8692364442482</v>
+        <v>81.194079773206</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>182.9639708841061</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23674,10 +23674,10 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J16" t="n">
-        <v>61.99638167634126</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K16" t="n">
-        <v>2.607050288750802</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>8.508606056834793</v>
       </c>
       <c r="P16" t="n">
-        <v>26.53509868619514</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q16" t="n">
         <v>74.52079753307214</v>
       </c>
       <c r="R16" t="n">
-        <v>135.9554396389582</v>
+        <v>116.3626210039064</v>
       </c>
       <c r="S16" t="n">
         <v>207.9945896499623</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>266.2310657508697</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>268.578016356852</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H17" t="n">
-        <v>173.8095431397699</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J17" t="n">
-        <v>7.091680627731932</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,16 +23774,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9757828529239703</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R17" t="n">
         <v>86.83958259249187</v>
       </c>
       <c r="S17" t="n">
-        <v>162.3156188332455</v>
+        <v>17.64046216220322</v>
       </c>
       <c r="T17" t="n">
-        <v>214.1238810212347</v>
+        <v>69.44872435019246</v>
       </c>
       <c r="U17" t="n">
         <v>251.1816877488572</v>
@@ -23792,10 +23792,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463708</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>249.3929033103471</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>128.7714971005916</v>
       </c>
       <c r="G18" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.23168261818573</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,16 +23859,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>6.638896330325053</v>
+        <v>6.638896330325082</v>
       </c>
       <c r="T18" t="n">
-        <v>51.06944934699766</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U18" t="n">
-        <v>176.032620178929</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V18" t="n">
-        <v>88.12543047838298</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23908,13 +23908,13 @@
         <v>154.0531901378539</v>
       </c>
       <c r="I19" t="n">
-        <v>108.2098713447736</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J19" t="n">
-        <v>61.99638167634126</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K19" t="n">
-        <v>22.1998689238026</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23929,7 +23929,7 @@
         <v>8.508606056834793</v>
       </c>
       <c r="P19" t="n">
-        <v>26.53509868619514</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q19" t="n">
         <v>74.52079753307214</v>
@@ -23947,7 +23947,7 @@
         <v>286.2688822253891</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>232.5448246887763</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,10 +23969,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>220.5977350999653</v>
       </c>
       <c r="D20" t="n">
-        <v>210.0078849496407</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,10 +23987,10 @@
         <v>318.4846998108122</v>
       </c>
       <c r="I20" t="n">
-        <v>131.4600546760548</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J20" t="n">
-        <v>7.091680627731961</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,31 +24011,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9757828529239987</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R20" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>162.3156188332455</v>
+        <v>121.7253234298834</v>
       </c>
       <c r="T20" t="n">
-        <v>214.1238810212347</v>
+        <v>69.44872435019246</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1816877488572</v>
+        <v>106.506531077815</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>221.811090721559</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>225.0559440074267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.5627819850113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.67505246793769</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H21" t="n">
         <v>101.6444647650348</v>
@@ -24069,7 +24069,7 @@
         <v>61.76616344642424</v>
       </c>
       <c r="J21" t="n">
-        <v>23.23168261818574</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.59326173053483</v>
+        <v>77.59326173053482</v>
       </c>
       <c r="S21" t="n">
-        <v>151.3140530013673</v>
+        <v>23.88417500551341</v>
       </c>
       <c r="T21" t="n">
-        <v>51.06944934699766</v>
+        <v>51.06944934699769</v>
       </c>
       <c r="U21" t="n">
         <v>225.8692364442482</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>61.00753910626207</v>
+        <v>61.0075391062621</v>
       </c>
     </row>
     <row r="22">
@@ -24148,10 +24148,10 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J22" t="n">
-        <v>61.99638167634127</v>
+        <v>61.99638167634126</v>
       </c>
       <c r="K22" t="n">
-        <v>22.19986892380261</v>
+        <v>22.1998689238026</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,7 +24166,7 @@
         <v>8.508606056834793</v>
       </c>
       <c r="P22" t="n">
-        <v>26.53509868619516</v>
+        <v>26.53509868619514</v>
       </c>
       <c r="Q22" t="n">
         <v>74.52079753307214</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>266.9301797015392</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.991834717043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>238.0586849924383</v>
       </c>
       <c r="C23" t="n">
-        <v>220.5977350999653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>262.2008890706692</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2531730278943</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H23" t="n">
-        <v>318.4846998108122</v>
+        <v>173.80954313977</v>
       </c>
       <c r="I23" t="n">
         <v>131.4600546760547</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.67505246793769</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,10 +24294,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>17.63933439752995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H24" t="n">
         <v>101.6444647650348</v>
@@ -24333,13 +24333,13 @@
         <v>77.59326173053482</v>
       </c>
       <c r="S24" t="n">
-        <v>151.3140530013673</v>
+        <v>6.638896330325082</v>
       </c>
       <c r="T24" t="n">
-        <v>51.06944934699766</v>
+        <v>51.06944934699769</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8692364442482</v>
+        <v>81.19407977320597</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>61.00753910626207</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24388,7 +24388,7 @@
         <v>61.99638167634126</v>
       </c>
       <c r="K25" t="n">
-        <v>2.607050288750802</v>
+        <v>22.1998689238026</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24400,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>26.53509868619514</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>207.5004407738778</v>
       </c>
     </row>
     <row r="26">
@@ -24446,10 +24446,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>210.0078849496406</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>237.2552134012195</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>413.2531730278943</v>
       </c>
       <c r="H26" t="n">
-        <v>173.8095431397699</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I26" t="n">
         <v>131.4600546760547</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>86.83958259249187</v>
@@ -24494,22 +24494,22 @@
         <v>162.3156188332455</v>
       </c>
       <c r="T26" t="n">
-        <v>86.69400302538068</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U26" t="n">
-        <v>106.5065310778149</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>201.2981633272049</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463707</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.5627819850113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>39.10330565401324</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H27" t="n">
         <v>101.6444647650348</v>
       </c>
       <c r="I27" t="n">
-        <v>26.73297661321504</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.59326173053482</v>
       </c>
       <c r="S27" t="n">
-        <v>6.638896330325025</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T27" t="n">
         <v>195.7446060180399</v>
@@ -24582,10 +24582,10 @@
         <v>88.12543047838295</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>61.09782853243516</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24646,13 +24646,13 @@
         <v>74.52079753307214</v>
       </c>
       <c r="R28" t="n">
-        <v>116.3626210039064</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S28" t="n">
         <v>207.9945896499623</v>
       </c>
       <c r="T28" t="n">
-        <v>224.0173974919776</v>
+        <v>204.4245788569258</v>
       </c>
       <c r="U28" t="n">
         <v>286.2688822253891</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>286.7990778849642</v>
+        <v>285.8232950320402</v>
       </c>
       <c r="H29" t="n">
-        <v>173.8095431397699</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I29" t="n">
         <v>131.4600546760547</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R29" t="n">
         <v>86.83958259249187</v>
@@ -24731,7 +24731,7 @@
         <v>162.3156188332455</v>
       </c>
       <c r="T29" t="n">
-        <v>214.1238810212347</v>
+        <v>69.44872435019241</v>
       </c>
       <c r="U29" t="n">
         <v>251.1816877488572</v>
@@ -24762,13 +24762,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>2.769908893596437</v>
       </c>
       <c r="E30" t="n">
-        <v>12.96992378435863</v>
+        <v>30.21520245954684</v>
       </c>
       <c r="F30" t="n">
-        <v>17.63933439752978</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.2469034849667</v>
@@ -24810,16 +24810,16 @@
         <v>151.3140530013673</v>
       </c>
       <c r="T30" t="n">
-        <v>51.06944934699763</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8692364442482</v>
+        <v>81.19407977320591</v>
       </c>
       <c r="V30" t="n">
-        <v>88.12543047838295</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24889,7 +24889,7 @@
         <v>207.9945896499623</v>
       </c>
       <c r="T31" t="n">
-        <v>224.0173974919776</v>
+        <v>204.4245788569258</v>
       </c>
       <c r="U31" t="n">
         <v>286.2688822253891</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>266.9301797015392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>220.5977350999652</v>
@@ -24923,13 +24923,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>237.2552134012195</v>
       </c>
       <c r="F32" t="n">
         <v>262.2008890706691</v>
       </c>
       <c r="G32" t="n">
-        <v>292.9149756597721</v>
+        <v>285.8232950320402</v>
       </c>
       <c r="H32" t="n">
         <v>318.4846998108122</v>
@@ -24938,7 +24938,7 @@
         <v>131.4600546760547</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>116.6965673845481</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.2469034849667</v>
+        <v>86.41028721964742</v>
       </c>
       <c r="H33" t="n">
         <v>101.6444647650348</v>
@@ -25050,7 +25050,7 @@
         <v>195.7446060180399</v>
       </c>
       <c r="U33" t="n">
-        <v>81.19407977320591</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V33" t="n">
         <v>88.12543047838295</v>
@@ -25059,7 +25059,7 @@
         <v>107.0198264898773</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>61.09782853243516</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>147.654002463576</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>198.991834717043</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>220.5977350999652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>210.0078849496406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>254.5004920764077</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>86.83958259249187</v>
@@ -25205,19 +25205,19 @@
         <v>162.3156188332455</v>
       </c>
       <c r="T35" t="n">
-        <v>214.1238810212347</v>
+        <v>69.44872435019241</v>
       </c>
       <c r="U35" t="n">
         <v>251.1816877488572</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>201.2981633272049</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463707</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>225.0559440074267</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.2469034849667</v>
+        <v>50.78417964771505</v>
       </c>
       <c r="H36" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.23168261818573</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>151.3140530013673</v>
       </c>
       <c r="T36" t="n">
-        <v>195.7446060180399</v>
+        <v>51.06944934699763</v>
       </c>
       <c r="U36" t="n">
         <v>225.8692364442482</v>
@@ -25293,13 +25293,13 @@
         <v>88.12543047838295</v>
       </c>
       <c r="W36" t="n">
-        <v>107.0198264898773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>61.09782853243516</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>78.25281778145026</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>126.8411440115174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25351,7 +25351,7 @@
         <v>8.508606056834793</v>
       </c>
       <c r="P37" t="n">
-        <v>26.53509868619514</v>
+        <v>6.94228005114331</v>
       </c>
       <c r="Q37" t="n">
         <v>74.52079753307214</v>
@@ -25391,16 +25391,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>331.7742769953774</v>
+        <v>238.8187966280775</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>210.0078849496407</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>237.2552134012195</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G38" t="n">
         <v>413.2531730278943</v>
@@ -25412,7 +25412,7 @@
         <v>131.4600546760547</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S38" t="n">
         <v>162.3156188332455</v>
@@ -25448,13 +25448,13 @@
         <v>251.1816877488572</v>
       </c>
       <c r="V38" t="n">
-        <v>183.0771017990926</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>204.5658120463707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>225.0559440074267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25521,22 +25521,22 @@
         <v>151.3140530013673</v>
       </c>
       <c r="T39" t="n">
-        <v>68.3147280221859</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U39" t="n">
-        <v>81.19407977320591</v>
+        <v>81.19407977320594</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X39" t="n">
-        <v>61.09782853243516</v>
+        <v>78.34310720762346</v>
       </c>
       <c r="Y39" t="n">
-        <v>61.00753910626204</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>160.2391615468855</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>207.9945896499623</v>
       </c>
       <c r="T40" t="n">
-        <v>224.0173974919776</v>
+        <v>204.4245788569257</v>
       </c>
       <c r="U40" t="n">
         <v>286.2688822253891</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>255.4762749293318</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2531730278943</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H41" t="n">
         <v>318.4846998108122</v>
@@ -25679,19 +25679,19 @@
         <v>162.3156188332455</v>
       </c>
       <c r="T41" t="n">
-        <v>214.1238810212347</v>
+        <v>69.44872435019244</v>
       </c>
       <c r="U41" t="n">
-        <v>106.5065310778149</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V41" t="n">
-        <v>183.0771017990926</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>204.5658120463707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>243.277005535539</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25713,7 +25713,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>30.21520245954684</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25761,19 +25761,19 @@
         <v>195.7446060180399</v>
       </c>
       <c r="U42" t="n">
-        <v>81.19407977320591</v>
+        <v>81.19407977320594</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>124.2651051650656</v>
       </c>
       <c r="X42" t="n">
-        <v>61.09782853243516</v>
+        <v>61.09782853243519</v>
       </c>
       <c r="Y42" t="n">
-        <v>61.00753910626204</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.07161528826</v>
+        <v>147.4787966532081</v>
       </c>
       <c r="H43" t="n">
         <v>154.0531901378539</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>206.1168367539854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2531730278943</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H44" t="n">
-        <v>173.8095431397699</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S44" t="n">
         <v>162.3156188332455</v>
@@ -25919,13 +25919,13 @@
         <v>214.1238810212347</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1816877488572</v>
+        <v>130.8434903807352</v>
       </c>
       <c r="V44" t="n">
         <v>183.0771017990926</v>
       </c>
       <c r="W44" t="n">
-        <v>303.5030347997192</v>
+        <v>204.5658120463707</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>21.85802697882505</v>
       </c>
       <c r="C45" t="n">
-        <v>45.27862099246164</v>
+        <v>28.03334231727345</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>12.96992378435863</v>
+        <v>30.21520245954693</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25998,13 +25998,13 @@
         <v>195.7446060180399</v>
       </c>
       <c r="U45" t="n">
-        <v>81.19407977320591</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V45" t="n">
-        <v>88.12543047838295</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>125.8282293878794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.07161528826</v>
@@ -26077,7 +26077,7 @@
         <v>224.0173974919776</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2688822253891</v>
+        <v>266.6760635903373</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427343</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>423512.4112427344</v>
+        <v>423512.4112427343</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427344</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427344</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423512.4112427344</v>
+        <v>423512.4112427345</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427344</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427344</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427344</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>88957.93741887718</v>
       </c>
       <c r="E2" t="n">
-        <v>115503.384884382</v>
+        <v>115503.3848843819</v>
       </c>
       <c r="F2" t="n">
-        <v>115503.384884382</v>
+        <v>115503.3848843819</v>
       </c>
       <c r="G2" t="n">
         <v>115503.3848843819</v>
       </c>
       <c r="H2" t="n">
-        <v>115503.3848843819</v>
+        <v>115503.384884382</v>
       </c>
       <c r="I2" t="n">
         <v>115503.384884382</v>
@@ -26347,7 +26347,7 @@
         <v>115503.384884382</v>
       </c>
       <c r="N2" t="n">
-        <v>115503.384884382</v>
+        <v>115503.3848843819</v>
       </c>
       <c r="O2" t="n">
         <v>115503.384884382</v>
@@ -26372,7 +26372,7 @@
         <v>75880.73575255743</v>
       </c>
       <c r="E3" t="n">
-        <v>119088.9379328905</v>
+        <v>119088.9379328903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>12602.66812350201</v>
       </c>
       <c r="M3" t="n">
-        <v>23644.51281186284</v>
+        <v>23644.51281186281</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>30.96378040239008</v>
       </c>
       <c r="E4" t="n">
-        <v>105.5521581027501</v>
+        <v>105.55215810275</v>
       </c>
       <c r="F4" t="n">
         <v>105.5521581027501</v>
@@ -26476,7 +26476,7 @@
         <v>45306.68319048216</v>
       </c>
       <c r="E5" t="n">
-        <v>19910.52534878445</v>
+        <v>19910.52534878444</v>
       </c>
       <c r="F5" t="n">
         <v>19910.52534878445</v>
@@ -26528,40 +26528,40 @@
         <v>-32260.4453045648</v>
       </c>
       <c r="E6" t="n">
-        <v>-23601.63055539567</v>
+        <v>-23601.63055539559</v>
       </c>
       <c r="F6" t="n">
-        <v>95487.30737749478</v>
+        <v>95487.30737749476</v>
       </c>
       <c r="G6" t="n">
-        <v>95487.30737749474</v>
+        <v>95487.30737749473</v>
       </c>
       <c r="H6" t="n">
-        <v>95487.30737749471</v>
+        <v>95487.30737749476</v>
       </c>
       <c r="I6" t="n">
         <v>95487.30737749478</v>
       </c>
       <c r="J6" t="n">
-        <v>95487.30737749476</v>
+        <v>95487.30737749477</v>
       </c>
       <c r="K6" t="n">
-        <v>95487.30737749476</v>
+        <v>95487.30737749477</v>
       </c>
       <c r="L6" t="n">
-        <v>82884.63925399276</v>
+        <v>82884.63925399273</v>
       </c>
       <c r="M6" t="n">
-        <v>71842.79456563192</v>
+        <v>71842.79456563195</v>
       </c>
       <c r="N6" t="n">
-        <v>95487.30737749478</v>
+        <v>95487.30737749474</v>
       </c>
       <c r="O6" t="n">
         <v>95487.30737749476</v>
       </c>
       <c r="P6" t="n">
-        <v>95487.30737749478</v>
+        <v>95487.30737749477</v>
       </c>
     </row>
   </sheetData>
@@ -26744,16 +26744,16 @@
         <v>396.859943267568</v>
       </c>
       <c r="E3" t="n">
+        <v>509.8291662011503</v>
+      </c>
+      <c r="F3" t="n">
+        <v>509.8291662011503</v>
+      </c>
+      <c r="G3" t="n">
+        <v>509.8291662011503</v>
+      </c>
+      <c r="H3" t="n">
         <v>509.8291662011504</v>
-      </c>
-      <c r="F3" t="n">
-        <v>509.8291662011504</v>
-      </c>
-      <c r="G3" t="n">
-        <v>509.8291662011504</v>
-      </c>
-      <c r="H3" t="n">
-        <v>509.8291662011503</v>
       </c>
       <c r="I3" t="n">
         <v>509.8291662011504</v>
@@ -26796,10 +26796,10 @@
         <v>49.79500702712468</v>
       </c>
       <c r="E4" t="n">
-        <v>144.6751566710423</v>
+        <v>144.6751566710421</v>
       </c>
       <c r="F4" t="n">
-        <v>144.6751566710423</v>
+        <v>144.6751566710422</v>
       </c>
       <c r="G4" t="n">
         <v>144.6751566710423</v>
@@ -26966,7 +26966,7 @@
         <v>70.54171547840377</v>
       </c>
       <c r="E3" t="n">
-        <v>112.9692229335823</v>
+        <v>112.9692229335822</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>49.79500702712468</v>
       </c>
       <c r="E4" t="n">
-        <v>94.8801496439176</v>
+        <v>94.88014964391746</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>49.79500702712468</v>
       </c>
       <c r="M4" t="n">
-        <v>94.8801496439176</v>
+        <v>94.88014964391746</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>49.79500702712468</v>
       </c>
       <c r="M4" t="n">
-        <v>94.8801496439176</v>
+        <v>94.88014964391746</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31045,7 +31045,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J2" t="n">
         <v>111.3401072796808</v>
@@ -31072,7 +31072,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S2" t="n">
         <v>29.89337332963048</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H3" t="n">
         <v>6.778799411242828</v>
@@ -31151,7 +31151,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S3" t="n">
         <v>13.03733674233122</v>
@@ -31200,7 +31200,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I4" t="n">
         <v>17.69607700863206</v>
@@ -31212,10 +31212,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M4" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N4" t="n">
         <v>90.04778243237713</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.049564487240804</v>
+        <v>2.049564487240803</v>
       </c>
       <c r="H11" t="n">
-        <v>20.99010230495489</v>
+        <v>20.99010230495488</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01583489435117</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J11" t="n">
-        <v>173.9542238989544</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K11" t="n">
         <v>260.7122886438576</v>
@@ -31768,28 +31768,28 @@
         <v>323.4366478202534</v>
       </c>
       <c r="M11" t="n">
-        <v>359.8855902702221</v>
+        <v>359.885590270222</v>
       </c>
       <c r="N11" t="n">
         <v>365.708915369595</v>
       </c>
       <c r="O11" t="n">
-        <v>345.3285584995943</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P11" t="n">
-        <v>294.7299352208369</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q11" t="n">
         <v>221.3299070215255</v>
       </c>
       <c r="R11" t="n">
-        <v>128.7459552216403</v>
+        <v>128.7459552216402</v>
       </c>
       <c r="S11" t="n">
-        <v>46.70445075299987</v>
+        <v>46.70445075299985</v>
       </c>
       <c r="T11" t="n">
-        <v>8.971968542896624</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U11" t="n">
         <v>0.1639651589792643</v>
@@ -31835,43 +31835,43 @@
         <v>10.59097947146163</v>
       </c>
       <c r="I12" t="n">
-        <v>37.75621655357576</v>
+        <v>37.75621655357575</v>
       </c>
       <c r="J12" t="n">
-        <v>103.605944048481</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>177.0790604908278</v>
       </c>
       <c r="L12" t="n">
-        <v>238.1046497432826</v>
+        <v>238.1046497432825</v>
       </c>
       <c r="M12" t="n">
-        <v>277.8568955796269</v>
+        <v>237.7793976178834</v>
       </c>
       <c r="N12" t="n">
-        <v>275.1769923091013</v>
+        <v>276.0168687543754</v>
       </c>
       <c r="O12" t="n">
-        <v>260.9122903671114</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P12" t="n">
-        <v>209.4051154534499</v>
+        <v>209.4051154534498</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>68.08624223342913</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S12" t="n">
-        <v>20.36911810247048</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T12" t="n">
-        <v>4.42012267678167</v>
+        <v>4.420122676781669</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07214563672657789</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9193640701987956</v>
+        <v>0.9193640701987954</v>
       </c>
       <c r="H13" t="n">
-        <v>8.173982369585662</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I13" t="n">
-        <v>27.64778494743288</v>
+        <v>27.64778494743287</v>
       </c>
       <c r="J13" t="n">
-        <v>64.99903976305485</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K13" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L13" t="n">
-        <v>136.6843636730101</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M13" t="n">
         <v>144.114496931253</v>
@@ -31938,19 +31938,19 @@
         <v>111.1929053629525</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.9842040963737</v>
+        <v>76.98420409637369</v>
       </c>
       <c r="R13" t="n">
-        <v>41.3379517382113</v>
+        <v>41.33795173821128</v>
       </c>
       <c r="S13" t="n">
-        <v>16.02200838700992</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T13" t="n">
-        <v>3.928191936303944</v>
+        <v>3.928191936303943</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05014713110175255</v>
+        <v>0.05014713110175253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,10 +31993,10 @@
         <v>20.99010230495489</v>
       </c>
       <c r="I14" t="n">
-        <v>79.01583489435117</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J14" t="n">
-        <v>173.9542238989544</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K14" t="n">
         <v>260.7122886438576</v>
@@ -32011,7 +32011,7 @@
         <v>365.708915369595</v>
       </c>
       <c r="O14" t="n">
-        <v>345.3285584995943</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P14" t="n">
         <v>294.7299352208369</v>
@@ -32023,10 +32023,10 @@
         <v>128.7459552216403</v>
       </c>
       <c r="S14" t="n">
-        <v>46.70445075299987</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T14" t="n">
-        <v>8.971968542896624</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U14" t="n">
         <v>0.1639651589792643</v>
@@ -32075,7 +32075,7 @@
         <v>37.75621655357576</v>
       </c>
       <c r="J15" t="n">
-        <v>103.605944048481</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K15" t="n">
         <v>177.0790604908279</v>
@@ -32084,13 +32084,13 @@
         <v>238.1046497432826</v>
       </c>
       <c r="M15" t="n">
-        <v>277.8568955796269</v>
+        <v>237.7793976178836</v>
       </c>
       <c r="N15" t="n">
-        <v>235.9393707926324</v>
+        <v>276.0168687543755</v>
       </c>
       <c r="O15" t="n">
-        <v>260.9122903671114</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P15" t="n">
         <v>209.4051154534499</v>
@@ -32099,10 +32099,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>68.08624223342913</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S15" t="n">
-        <v>20.36911810247048</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T15" t="n">
         <v>4.42012267678167</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9193640701987956</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H16" t="n">
-        <v>8.173982369585662</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I16" t="n">
         <v>27.64778494743288</v>
       </c>
       <c r="J16" t="n">
-        <v>64.99903976305485</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K16" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L16" t="n">
-        <v>136.6843636730101</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M16" t="n">
         <v>144.114496931253</v>
@@ -32178,16 +32178,16 @@
         <v>76.9842040963737</v>
       </c>
       <c r="R16" t="n">
-        <v>41.3379517382113</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S16" t="n">
-        <v>16.02200838700992</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T16" t="n">
         <v>3.928191936303944</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05014713110175255</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,10 +32230,10 @@
         <v>20.99010230495489</v>
       </c>
       <c r="I17" t="n">
-        <v>79.01583489435117</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J17" t="n">
-        <v>173.9542238989544</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K17" t="n">
         <v>260.7122886438576</v>
@@ -32248,10 +32248,10 @@
         <v>365.708915369595</v>
       </c>
       <c r="O17" t="n">
-        <v>345.3285584995943</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P17" t="n">
-        <v>294.7299352208369</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q17" t="n">
         <v>221.3299070215255</v>
@@ -32260,10 +32260,10 @@
         <v>128.7459552216403</v>
       </c>
       <c r="S17" t="n">
-        <v>46.70445075299987</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T17" t="n">
-        <v>8.971968542896624</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U17" t="n">
         <v>0.1639651589792643</v>
@@ -32312,7 +32312,7 @@
         <v>37.75621655357576</v>
       </c>
       <c r="J18" t="n">
-        <v>103.605944048481</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K18" t="n">
         <v>177.0790604908279</v>
@@ -32327,7 +32327,7 @@
         <v>235.9393707926324</v>
       </c>
       <c r="O18" t="n">
-        <v>260.9122903671114</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P18" t="n">
         <v>209.4051154534499</v>
@@ -32336,10 +32336,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>68.08624223342913</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S18" t="n">
-        <v>20.36911810247048</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T18" t="n">
         <v>4.42012267678167</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9193640701987956</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H19" t="n">
-        <v>8.173982369585662</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I19" t="n">
         <v>27.64778494743288</v>
       </c>
       <c r="J19" t="n">
-        <v>64.99903976305485</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K19" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L19" t="n">
-        <v>136.6843636730101</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M19" t="n">
         <v>144.114496931253</v>
@@ -32415,16 +32415,16 @@
         <v>76.9842040963737</v>
       </c>
       <c r="R19" t="n">
-        <v>41.3379517382113</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S19" t="n">
-        <v>16.02200838700992</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T19" t="n">
         <v>3.928191936303944</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05014713110175255</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,10 +32467,10 @@
         <v>20.99010230495489</v>
       </c>
       <c r="I20" t="n">
-        <v>79.01583489435116</v>
+        <v>79.01583489435117</v>
       </c>
       <c r="J20" t="n">
-        <v>173.9542238989543</v>
+        <v>173.9542238989544</v>
       </c>
       <c r="K20" t="n">
         <v>260.7122886438576</v>
@@ -32485,10 +32485,10 @@
         <v>365.708915369595</v>
       </c>
       <c r="O20" t="n">
-        <v>345.3285584995942</v>
+        <v>345.3285584995943</v>
       </c>
       <c r="P20" t="n">
-        <v>294.7299352208368</v>
+        <v>294.7299352208369</v>
       </c>
       <c r="Q20" t="n">
         <v>221.3299070215255</v>
@@ -32497,10 +32497,10 @@
         <v>128.7459552216403</v>
       </c>
       <c r="S20" t="n">
-        <v>46.70445075299986</v>
+        <v>46.70445075299987</v>
       </c>
       <c r="T20" t="n">
-        <v>8.971968542896622</v>
+        <v>8.971968542896624</v>
       </c>
       <c r="U20" t="n">
         <v>0.1639651589792643</v>
@@ -32549,7 +32549,7 @@
         <v>37.75621655357576</v>
       </c>
       <c r="J21" t="n">
-        <v>103.6059440484809</v>
+        <v>103.605944048481</v>
       </c>
       <c r="K21" t="n">
         <v>177.0790604908279</v>
@@ -32561,22 +32561,22 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N21" t="n">
-        <v>235.9393707926325</v>
+        <v>276.0168687543755</v>
       </c>
       <c r="O21" t="n">
-        <v>260.9122903671113</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P21" t="n">
-        <v>209.4051154534499</v>
+        <v>169.3276174917066</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>68.08624223342912</v>
+        <v>68.08624223342913</v>
       </c>
       <c r="S21" t="n">
-        <v>20.36911810247047</v>
+        <v>20.36911810247048</v>
       </c>
       <c r="T21" t="n">
         <v>4.42012267678167</v>
@@ -32619,22 +32619,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9193640701987956</v>
       </c>
       <c r="H22" t="n">
-        <v>8.17398236958566</v>
+        <v>8.173982369585662</v>
       </c>
       <c r="I22" t="n">
         <v>27.64778494743288</v>
       </c>
       <c r="J22" t="n">
-        <v>64.99903976305484</v>
+        <v>64.99903976305485</v>
       </c>
       <c r="K22" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L22" t="n">
-        <v>136.68436367301</v>
+        <v>136.6843636730101</v>
       </c>
       <c r="M22" t="n">
         <v>144.114496931253</v>
@@ -32652,16 +32652,16 @@
         <v>76.9842040963737</v>
       </c>
       <c r="R22" t="n">
-        <v>41.33795173821129</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S22" t="n">
-        <v>16.02200838700991</v>
+        <v>16.02200838700992</v>
       </c>
       <c r="T22" t="n">
         <v>3.928191936303944</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05014713110175255</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,10 +32795,10 @@
         <v>238.1046497432826</v>
       </c>
       <c r="M24" t="n">
-        <v>237.7793976178836</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N24" t="n">
-        <v>276.0168687543756</v>
+        <v>235.9393707926322</v>
       </c>
       <c r="O24" t="n">
         <v>260.9122903671114</v>
@@ -33266,13 +33266,13 @@
         <v>177.0790604908279</v>
       </c>
       <c r="L30" t="n">
-        <v>198.0271517815394</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M30" t="n">
         <v>277.8568955796269</v>
       </c>
       <c r="N30" t="n">
-        <v>276.0168687543757</v>
+        <v>235.9393707926325</v>
       </c>
       <c r="O30" t="n">
         <v>260.9122903671114</v>
@@ -33509,13 +33509,13 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N33" t="n">
-        <v>276.0168687543757</v>
+        <v>235.9393707926325</v>
       </c>
       <c r="O33" t="n">
         <v>260.9122903671114</v>
       </c>
       <c r="P33" t="n">
-        <v>169.3276174917067</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33746,13 +33746,13 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N36" t="n">
-        <v>235.9393707926325</v>
+        <v>276.0168687543757</v>
       </c>
       <c r="O36" t="n">
         <v>260.9122903671114</v>
       </c>
       <c r="P36" t="n">
-        <v>209.4051154534499</v>
+        <v>169.3276174917067</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33983,7 +33983,7 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N39" t="n">
-        <v>235.9393707926325</v>
+        <v>235.9393707926324</v>
       </c>
       <c r="O39" t="n">
         <v>260.9122903671114</v>
@@ -34220,13 +34220,13 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N42" t="n">
-        <v>235.9393707926325</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O42" t="n">
         <v>260.9122903671114</v>
       </c>
       <c r="P42" t="n">
-        <v>209.4051154534499</v>
+        <v>169.3276174917066</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34384,7 +34384,7 @@
         <v>345.3285584995943</v>
       </c>
       <c r="P44" t="n">
-        <v>294.7299352208369</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q44" t="n">
         <v>221.3299070215255</v>
@@ -34457,7 +34457,7 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N45" t="n">
-        <v>235.9393707926325</v>
+        <v>235.9393707926324</v>
       </c>
       <c r="O45" t="n">
         <v>260.9122903671114</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>40.62243759887707</v>
+        <v>40.62243759887701</v>
       </c>
       <c r="L11" t="n">
-        <v>87.67023285026619</v>
+        <v>87.67023285026613</v>
       </c>
       <c r="M11" t="n">
         <v>129.5393570429493</v>
@@ -35422,10 +35422,10 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O11" t="n">
-        <v>115.2303470779076</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P11" t="n">
-        <v>63.49693946556732</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.23762151646883</v>
       </c>
       <c r="L12" t="n">
-        <v>99.5502699634084</v>
+        <v>99.55026996340834</v>
       </c>
       <c r="M12" t="n">
-        <v>135.7228616576086</v>
+        <v>95.64536369586511</v>
       </c>
       <c r="N12" t="n">
-        <v>143.8352802257679</v>
+        <v>144.6751566710421</v>
       </c>
       <c r="O12" t="n">
         <v>118.3160459226669</v>
       </c>
       <c r="P12" t="n">
-        <v>75.43070803911962</v>
+        <v>75.43070803911959</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35571,13 +35571,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.799687391771783</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M13" t="n">
-        <v>5.188712983647946</v>
+        <v>5.188712983647918</v>
       </c>
       <c r="N13" t="n">
-        <v>13.00223184073351</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O14" t="n">
-        <v>115.2303470779076</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P14" t="n">
         <v>63.49693946556732</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.23762151646889</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L15" t="n">
-        <v>99.5502699634084</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M15" t="n">
-        <v>135.7228616576086</v>
+        <v>95.64536369586526</v>
       </c>
       <c r="N15" t="n">
-        <v>104.597658709299</v>
+        <v>144.6751566710422</v>
       </c>
       <c r="O15" t="n">
         <v>118.3160459226669</v>
@@ -35808,13 +35808,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.799687391771783</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M16" t="n">
         <v>5.188712983647946</v>
       </c>
       <c r="N16" t="n">
-        <v>13.00223184073351</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O17" t="n">
-        <v>115.2303470779076</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P17" t="n">
-        <v>63.49693946556732</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.23762151646889</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L18" t="n">
-        <v>99.5502699634084</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M18" t="n">
         <v>135.7228616576086</v>
@@ -36045,13 +36045,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.799687391771783</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M19" t="n">
         <v>5.188712983647946</v>
       </c>
       <c r="N19" t="n">
-        <v>13.00223184073351</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O20" t="n">
-        <v>115.2303470779075</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P20" t="n">
-        <v>63.49693946556727</v>
+        <v>63.49693946556732</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.23762151646886</v>
+        <v>39.23762151646889</v>
       </c>
       <c r="L21" t="n">
-        <v>99.55026996340837</v>
+        <v>99.5502699634084</v>
       </c>
       <c r="M21" t="n">
         <v>135.7228616576086</v>
       </c>
       <c r="N21" t="n">
-        <v>104.5976587092992</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O21" t="n">
         <v>118.3160459226669</v>
       </c>
       <c r="P21" t="n">
-        <v>75.43070803911962</v>
+        <v>35.35321007737635</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.799687391771755</v>
+        <v>1.799687391771783</v>
       </c>
       <c r="M22" t="n">
         <v>5.188712983647946</v>
       </c>
       <c r="N22" t="n">
-        <v>13.00223184073349</v>
+        <v>13.00223184073351</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>99.5502699634084</v>
       </c>
       <c r="M24" t="n">
-        <v>95.64536369586531</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N24" t="n">
-        <v>144.6751566710423</v>
+        <v>104.5976587092989</v>
       </c>
       <c r="O24" t="n">
         <v>118.3160459226669</v>
@@ -36914,13 +36914,13 @@
         <v>39.23762151646889</v>
       </c>
       <c r="L30" t="n">
-        <v>59.47277200166522</v>
+        <v>99.5502699634084</v>
       </c>
       <c r="M30" t="n">
         <v>135.7228616576086</v>
       </c>
       <c r="N30" t="n">
-        <v>144.6751566710423</v>
+        <v>104.5976587092992</v>
       </c>
       <c r="O30" t="n">
         <v>118.3160459226669</v>
@@ -37157,13 +37157,13 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N33" t="n">
-        <v>144.6751566710423</v>
+        <v>104.5976587092992</v>
       </c>
       <c r="O33" t="n">
         <v>118.3160459226669</v>
       </c>
       <c r="P33" t="n">
-        <v>35.35321007737646</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N36" t="n">
-        <v>104.5976587092992</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O36" t="n">
         <v>118.3160459226669</v>
       </c>
       <c r="P36" t="n">
-        <v>75.43070803911962</v>
+        <v>35.35321007737646</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N39" t="n">
-        <v>104.5976587092992</v>
+        <v>104.597658709299</v>
       </c>
       <c r="O39" t="n">
         <v>118.3160459226669</v>
@@ -37868,13 +37868,13 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N42" t="n">
-        <v>104.5976587092992</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O42" t="n">
         <v>118.3160459226669</v>
       </c>
       <c r="P42" t="n">
-        <v>75.43070803911962</v>
+        <v>35.35321007737635</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>115.2303470779076</v>
       </c>
       <c r="P44" t="n">
-        <v>63.49693946556732</v>
+        <v>63.49693946556719</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N45" t="n">
-        <v>104.5976587092992</v>
+        <v>104.597658709299</v>
       </c>
       <c r="O45" t="n">
         <v>118.3160459226669</v>
